--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,60 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>나이</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>전화번호</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>최근방문일</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>김지경</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>010-2083-8890</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-09-14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="client" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="client_list" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,17 +443,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>번호</t>
+          <t>이름</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>이름</t>
+          <t>나이</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>나이</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -442,200 +461,6 @@
           <t>최근방문일</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>전화번호</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>김지경</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20210914</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>010-2083-8890</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>나이</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>최근방문일</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>전화번호</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>김지경</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20210914</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>010-2083-8890</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>나이</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>최근방문일</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>전화번호</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>김지경</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20210914</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>010-2083-8890</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>나이</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>전화번호</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>최근방문일</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>김지경</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>010-2083-8890</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2021-09-14</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -414,14 +414,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>김지경</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>010-2083-8890</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="client_list" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="고객정보" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,65 +434,184 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>김지경</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>010-2083-8890</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2021-09-17</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>나이</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>전화번호</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>최근방문일</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>010-0000-0000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
         </is>
       </c>
     </row>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>홍길동</t>
+          <t>김지경</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,152 +466,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>010-0000-0000</t>
+          <t>010-2083-8890</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>홍길동</t>
+          <t>서기용</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>010-0000-0000</t>
+          <t>010-5556-9533</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>35</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>010-0000-0000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>35</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>010-0000-0000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>35</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>010-0000-0000</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>35</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>010-0000-0000</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>35</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>010-0000-0000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>35</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>010-0000-0000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
+          <t>2021.09.26</t>
         </is>
       </c>
     </row>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,106 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>서기용</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01055569533</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>서기용</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>서기용</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>010-5556-9533</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>서기용</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>010-5556-9533</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>서기용</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>010-5556-9533</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.09.26</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -506,92 +506,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01055569533</t>
+          <t>010-5556-9533</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>오늘</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>서기용</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>32</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>서기용</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>32</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>010-5556-9533</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>서기용</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>32</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>010-5556-9533</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-09-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>서기용</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>32</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>010-5556-9533</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
+          <t>2021-09-27</t>
         </is>
       </c>
     </row>

--- a/client_list.xlsx
+++ b/client_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,46 +471,6 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>서기용</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>010-5556-9533</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>서기용</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>32</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>010-5556-9533</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>2021-09-27</t>
         </is>
       </c>
